--- a/team_specific_matrix/Fisher_B.xlsx
+++ b/team_specific_matrix/Fisher_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.125</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="C2">
-        <v>0.75</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.125</v>
+        <v>0.1363636363636364</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.04545454545454546</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1666666666666667</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8333333333333334</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>0.07692307692307693</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,7 +734,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1111111111111111</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1111111111111111</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -779,13 +779,13 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.2222222222222222</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="R6">
-        <v>0.1111111111111111</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="S6">
-        <v>0.4444444444444444</v>
+        <v>0.3846153846153846</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,7 +793,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1666666666666667</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.5</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -838,13 +838,13 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1666666666666667</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>0.1666666666666667</v>
+        <v>0.2727272727272727</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>0.08571428571428572</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.05882352941176471</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.1176470588235294</v>
+        <v>0.08571428571428572</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1176470588235294</v>
+        <v>0.08571428571428572</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.3529411764705883</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="R8">
-        <v>0.05882352941176471</v>
+        <v>0.1142857142857143</v>
       </c>
       <c r="S8">
-        <v>0.2941176470588235</v>
+        <v>0.2571428571428571</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,7 +911,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -923,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1666666666666667</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1666666666666667</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="R9">
-        <v>0.3333333333333333</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="S9">
-        <v>0.3333333333333333</v>
+        <v>0.3529411764705883</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.07142857142857142</v>
+        <v>0.08029197080291971</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01428571428571429</v>
+        <v>0.04379562043795621</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.05714285714285714</v>
+        <v>0.0364963503649635</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.08571428571428572</v>
+        <v>0.0948905109489051</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01428571428571429</v>
+        <v>0.0145985401459854</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.3571428571428572</v>
+        <v>0.3284671532846715</v>
       </c>
       <c r="R10">
-        <v>0.07142857142857142</v>
+        <v>0.1313868613138686</v>
       </c>
       <c r="S10">
-        <v>0.3285714285714286</v>
+        <v>0.2700729927007299</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.2857142857142857</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="K11">
-        <v>0.1428571428571428</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="L11">
-        <v>0.5714285714285714</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.25</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.25</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1283,13 +1283,13 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.25</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="J15">
-        <v>0.25</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.5</v>
+        <v>0.3846153846153846</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1342,13 +1342,13 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1428571428571428</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="I16">
-        <v>0.2857142857142857</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="J16">
-        <v>0.2857142857142857</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1363,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.2857142857142857</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1401,28 +1401,28 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.08823529411764706</v>
+        <v>0.09677419354838709</v>
       </c>
       <c r="I17">
-        <v>0.05882352941176471</v>
+        <v>0.09677419354838709</v>
       </c>
       <c r="J17">
-        <v>0.5882352941176471</v>
+        <v>0.5645161290322581</v>
       </c>
       <c r="K17">
-        <v>0.05882352941176471</v>
+        <v>0.04838709677419355</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02941176470588235</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.02941176470588235</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1470588235294118</v>
+        <v>0.1612903225806452</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1460,13 +1460,13 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.3</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="J18">
-        <v>0.5</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1481,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.1</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1</v>
+        <v>0.1851851851851852</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02083333333333333</v>
+        <v>0.01075268817204301</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1875</v>
+        <v>0.1935483870967742</v>
       </c>
       <c r="I19">
-        <v>0.0625</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="J19">
-        <v>0.5833333333333334</v>
+        <v>0.5268817204301075</v>
       </c>
       <c r="K19">
-        <v>0.0625</v>
+        <v>0.09677419354838709</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02083333333333333</v>
+        <v>0.01075268817204301</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.02083333333333333</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.04166666666666666</v>
+        <v>0.06451612903225806</v>
       </c>
     </row>
   </sheetData>
